--- a/CNN+att results/cnn+att_result_full.xlsx
+++ b/CNN+att results/cnn+att_result_full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/hdong3_ed_ac_uk/Documents/My python projects/caml-mimic/results/caml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdong3\OneDrive\python_projects\label-embedding-medical-coding\CNN+att results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="caml_result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>acc_macro</t>
   </si>
@@ -126,37 +126,7 @@
     <t>loss_tr</t>
   </si>
   <si>
-    <t>conv_attn_Dec_11_20%3A33%3A52</t>
-  </si>
-  <si>
     <t>nan</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A35%3A42</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A43%3A38</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A44%3A19</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A45%3A55</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A48%3A35</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A51%3A10</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_23%3A09%3A49</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_12_00%3A57%3A33</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_12_20%3A20%3A08</t>
   </si>
 </sst>
 </file>
@@ -963,15 +933,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:AH12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="25" max="25" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,11 +1051,8 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.5408390327991197E-2</v>
       </c>
@@ -1185,13 +1156,10 @@
         <v>5.9780049026120097E-3</v>
       </c>
       <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.5494551832237801E-2</v>
       </c>
@@ -1295,13 +1263,10 @@
         <v>5.9738121312600404E-3</v>
       </c>
       <c r="AI3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.5599604752841597E-2</v>
       </c>
@@ -1405,13 +1370,10 @@
         <v>5.9732154818831103E-3</v>
       </c>
       <c r="AI4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.4751345806485397E-2</v>
       </c>
@@ -1515,13 +1477,10 @@
         <v>5.9688071928517003E-3</v>
       </c>
       <c r="AI5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.2729147218888201E-2</v>
       </c>
@@ -1625,13 +1584,10 @@
         <v>5.9611692068558897E-3</v>
       </c>
       <c r="AI6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.33885462342904E-2</v>
       </c>
@@ -1735,13 +1691,10 @@
         <v>5.9612482068991798E-3</v>
       </c>
       <c r="AI7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.3286155006549497E-2</v>
       </c>
@@ -1845,13 +1798,10 @@
         <v>5.9618155088089599E-3</v>
       </c>
       <c r="AI8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.6585098347562297E-2</v>
       </c>
@@ -1955,13 +1905,10 @@
         <v>5.9633915672191399E-3</v>
       </c>
       <c r="AI9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.1763250990117899E-2</v>
       </c>
@@ -2065,13 +2012,10 @@
         <v>5.9765391316569201E-3</v>
       </c>
       <c r="AI10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.5371880367310297E-2</v>
       </c>
@@ -2175,36 +2119,33 @@
         <v>5.96342707189853E-3</v>
       </c>
       <c r="AI11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>LEFT(AVERAGE(A2:A11),5) &amp;"±"&amp; LEFT(_xlfn.STDEV.P(A2:A11),5)</f>
+        <f>ROUND(AVERAGE(A2:A11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(A2:A11),3)</f>
         <v>0.044±0.001</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" ref="B12:AH12" si="0">LEFT(AVERAGE(B2:B11),5) &amp;"±"&amp; LEFT(_xlfn.STDEV.P(B2:B11),5)</f>
-        <v>0.067±0.001</v>
+        <f t="shared" ref="B12:AH12" si="0">ROUND(AVERAGE(B2:B11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(B2:B11),3)</f>
+        <v>0.068±0.002</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>0.058±0.001</v>
+        <v>0.058±0.002</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>0.062±0.001</v>
+        <v>0.063±0.002</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>0.356±0.000</v>
+        <v>0.356±0.001</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>0.634±0.004</v>
+        <v>0.634±0.005</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -2212,31 +2153,31 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>0.525±0.000</v>
+        <v>0.525±0.001</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>0.383±0.000</v>
+        <v>0.383±0.001</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>0.705±0.000</v>
+        <v>0.705±0.001</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>0.496±0.000</v>
+        <v>0.497±0.001</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>0.528±0.000</v>
+        <v>0.528±0.001</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>0.546±0.000</v>
+        <v>0.546±0.001</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>0.537±0.000</v>
+        <v>0.537±0.001</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
@@ -2244,15 +2185,15 @@
       </c>
       <c r="P12" t="str">
         <f t="shared" si="0"/>
-        <v>0.984±0.000</v>
+        <v>0.984±0</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="0"/>
-        <v>0.005±5.646</v>
+        <v>0.006±0</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="0"/>
-        <v>0.047±0.001</v>
+        <v>0.048±0.002</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="0"/>
@@ -2260,15 +2201,15 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="0"/>
-        <v>0.063±0.002</v>
+        <v>0.064±0.003</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="0"/>
-        <v>0.069±0.002</v>
+        <v>0.07±0.002</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="0"/>
-        <v>0.348±0.001</v>
+        <v>0.349±0.001</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="0"/>
@@ -2276,7 +2217,7 @@
       </c>
       <c r="X12" t="str">
         <f t="shared" si="0"/>
-        <v>0.439±0.003</v>
+        <v>0.439±0.004</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="0"/>
@@ -2284,7 +2225,7 @@
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="0"/>
-        <v>0.363±0.001</v>
+        <v>0.364±0.001</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
@@ -2292,31 +2233,31 @@
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="0"/>
-        <v>0.477±0.001</v>
+        <v>0.477±0.002</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="0"/>
-        <v>0.510±0.001</v>
+        <v>0.51±0.002</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="0"/>
-        <v>0.545±0.001</v>
+        <v>0.546±0.002</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="0"/>
-        <v>0.527±0.001</v>
+        <v>0.527±0.002</v>
       </c>
       <c r="AF12" t="str">
         <f t="shared" si="0"/>
-        <v>0.886±0.001</v>
+        <v>0.886±0.002</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="0"/>
-        <v>0.984±0.000</v>
+        <v>0.984±0</v>
       </c>
       <c r="AH12" t="str">
         <f t="shared" si="0"/>
-        <v>0.005±6.380</v>
+        <v>0.006±0</v>
       </c>
     </row>
   </sheetData>
@@ -2489,18 +2430,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,25 +2463,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC4DE301-1180-44D1-907F-DD1C16CA4F41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3FD352-2D97-4535-90FE-B54FC0283D5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC4DE301-1180-44D1-907F-DD1C16CA4F41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>